--- a/data-raw/metadata/butte_recapture_metadata.xlsx
+++ b/data-raw/metadata/butte_recapture_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D3AEBE-384E-B54B-997D-9F9F7404FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6ACAC-F495-0041-963E-6071EBA3CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="-20660" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34160" yWindow="-20700" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -142,9 +142,6 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>millimeters</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
@@ -237,11 +234,23 @@
   <si>
     <t>attribute_name</t>
   </si>
+  <si>
+    <t>Butte River RST program</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>number of fish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -253,11 +262,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -299,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,9 +333,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,9 +554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -560,7 +572,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -746,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -810,7 +822,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -822,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -860,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -898,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -936,7 +948,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -980,16 +992,20 @@
         <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1006,10 +1022,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -1024,16 +1040,20 @@
         <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1050,10 +1070,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -1067,15 +1087,21 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>109</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1092,10 +1118,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1104,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1130,30 +1156,34 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="13">
+        <v>44203.437696759262</v>
+      </c>
+      <c r="M15" s="13">
+        <v>44630.41679398148</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1170,10 +1200,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1182,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1208,10 +1238,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1220,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1246,10 +1276,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1258,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1284,10 +1314,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1322,10 +1352,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1360,10 +1390,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1398,10 +1428,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -1410,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1435,7 +1465,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1463,7 +1493,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1491,7 +1521,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1519,7 +1549,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -28454,7 +28484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -28467,14 +28497,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28501,9 +28531,15 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="9">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>

--- a/data-raw/metadata/butte_recapture_metadata.xlsx
+++ b/data-raw/metadata/butte_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6ACAC-F495-0041-963E-6071EBA3CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DBDCDF-507A-F640-9FD4-239F6522F563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34160" yWindow="-20700" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9440" yWindow="-21600" windowWidth="19040" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Foreign Key to the CAMP Release table</t>
-  </si>
-  <si>
-    <t>Run as assigned at the time of the capture.</t>
   </si>
   <si>
     <t>fishOrigin</t>
@@ -196,12 +193,6 @@
     <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 11</t>
   </si>
   <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>actualCountID</t>
-  </si>
-  <si>
     <t>markType</t>
   </si>
   <si>
@@ -242,6 +233,21 @@
   </si>
   <si>
     <t>number of fish</t>
+  </si>
+  <si>
+    <t>atCaptureRun</t>
+  </si>
+  <si>
+    <t>finalRun</t>
+  </si>
+  <si>
+    <t>actualCount</t>
+  </si>
+  <si>
+    <t>Run as assigned at the time of the capture. Levels = c("Spring", "Not recorded", "Winter", "Late fall", "Fall")</t>
+  </si>
+  <si>
+    <t>Run revised after field visit. Levels = c("Spring", "Not recorded", "Winter", "Late fall", "Fall")</t>
   </si>
 </sst>
 </file>
@@ -334,9 +340,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -822,10 +828,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -858,12 +864,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -896,12 +902,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -936,10 +942,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -974,38 +980,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1022,38 +1018,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1070,37 +1056,37 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1118,28 +1104,38 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1156,72 +1152,82 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5" t="s">
-        <v>48</v>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="13">
-        <v>44203.437696759262</v>
+      <c r="G15" s="3" t="s">
+        <v>68</v>
       </c>
-      <c r="M15" s="13">
-        <v>44630.41679398148</v>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>109</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="11">
+        <v>44203.437696759262</v>
+      </c>
+      <c r="M16" s="11">
+        <v>44630.41679398148</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1238,10 +1244,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1252,34 +1258,34 @@
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1314,10 +1320,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1352,10 +1358,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1390,10 +1396,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1428,10 +1434,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -1465,11 +1471,21 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1521,7 +1537,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1577,7 +1593,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -2529,7 +2545,7 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -28456,22 +28472,50 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A987" s="1"/>
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+      <c r="D987" s="2"/>
+      <c r="E987" s="1"/>
+      <c r="F987" s="3"/>
+      <c r="G987" s="3"/>
+      <c r="H987" s="3"/>
+      <c r="I987" s="2"/>
+      <c r="J987" s="3"/>
+      <c r="K987" s="2"/>
+      <c r="L987" s="3"/>
+      <c r="M987" s="3"/>
+      <c r="N987" s="1"/>
+      <c r="O987" s="1"/>
+      <c r="P987" s="1"/>
+      <c r="Q987" s="1"/>
+      <c r="R987" s="1"/>
+      <c r="S987" s="1"/>
+      <c r="T987" s="1"/>
+      <c r="U987" s="1"/>
+      <c r="V987" s="1"/>
+      <c r="W987" s="1"/>
+      <c r="X987" s="1"/>
+      <c r="Y987" s="1"/>
+      <c r="Z987" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C1:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C44:C987 C16:C32 C1:C15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E986" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E16:E987 E1:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F986" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F987" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H986" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H987" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28498,13 +28542,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28535,7 +28579,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/butte_recapture_metadata.xlsx
+++ b/data-raw/metadata/butte_recapture_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DBDCDF-507A-F640-9FD4-239F6522F563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC80C4-8B8C-CD46-98D3-AEB87E17C684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9440" yWindow="-21600" windowWidth="19040" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9440" yWindow="-21100" windowWidth="19040" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>nominal</t>
-  </si>
-  <si>
-    <t>catch</t>
   </si>
   <si>
     <t>enumerated</t>
@@ -226,9 +223,6 @@
     <t>attribute_name</t>
   </si>
   <si>
-    <t>Butte River RST program</t>
-  </si>
-  <si>
     <t>millimeter</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>Run revised after field visit. Levels = c("Spring", "Not recorded", "Winter", "Late fall", "Fall")</t>
+  </si>
+  <si>
+    <t>recapture</t>
+  </si>
+  <si>
+    <t>Butte Creek RST program</t>
   </si>
 </sst>
 </file>
@@ -560,9 +560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,16 +641,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -676,19 +676,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -714,19 +714,19 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -752,19 +752,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -790,19 +790,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -828,19 +828,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -866,19 +866,19 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -904,19 +904,19 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -942,19 +942,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -980,19 +980,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1018,19 +1018,19 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1056,28 +1056,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1104,28 +1104,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1152,28 +1152,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1200,26 +1200,26 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="11">
@@ -1244,19 +1244,19 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1282,19 +1282,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1320,19 +1320,19 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1358,19 +1358,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1396,19 +1396,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1434,19 +1434,19 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -28506,10 +28506,10 @@
     <mergeCell ref="A26:A27"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C44:C987 C16:C32 C1:C15" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C44:C987 C1:C32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E16:E987 E1:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E987" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F987" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -28528,8 +28528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28542,13 +28542,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28579,7 +28579,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/butte_recapture_metadata.xlsx
+++ b/data-raw/metadata/butte_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC80C4-8B8C-CD46-98D3-AEB87E17C684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACFBC7B-2212-B841-9F8D-B5EB35E8EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9440" yWindow="-21100" windowWidth="19040" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="17280" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Life stage of the fish. Levels = c("Not recorded", "Smolt", "Parr", "Fry", "Button-up fry", "Silvery parr", "Adult", "Juvenile", "Ammocoete", "Yearling", "Yolk sac fry (alevin)")</t>
-  </si>
-  <si>
-    <t>mort</t>
-  </si>
-  <si>
-    <t>Whether fish died due to being captured or handled.  Levels = c("Yes", "No")</t>
   </si>
   <si>
     <t>forkLength</t>
@@ -558,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -685,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -723,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -761,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -799,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -828,16 +822,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -866,16 +860,16 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -913,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -951,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -980,16 +974,16 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -1018,28 +1012,38 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1056,28 +1060,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1110,31 +1114,31 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1152,82 +1156,72 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5" t="s">
+        <v>44</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>66</v>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11">
+        <v>44203.437696759262</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
+      <c r="M15" s="11">
+        <v>44303.466550925928</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>109</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="11">
-        <v>44203.437696759262</v>
-      </c>
-      <c r="M16" s="11">
-        <v>44630.41679398148</v>
-      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1253,32 +1247,32 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -1291,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -1320,16 +1314,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1358,16 +1352,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -1396,16 +1390,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -1434,16 +1428,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -1471,21 +1465,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1509,7 +1493,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1537,7 +1521,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1565,7 +1549,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -1593,7 +1577,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -2545,7 +2529,7 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -28472,50 +28456,22 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
-      <c r="P987" s="1"/>
-      <c r="Q987" s="1"/>
-      <c r="R987" s="1"/>
-      <c r="S987" s="1"/>
-      <c r="T987" s="1"/>
-      <c r="U987" s="1"/>
-      <c r="V987" s="1"/>
-      <c r="W987" s="1"/>
-      <c r="X987" s="1"/>
-      <c r="Y987" s="1"/>
-      <c r="Z987" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C44:C987 C1:C32" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C1:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E987" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E986" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F987" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F986" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H987" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H986" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28528,7 +28484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -28542,13 +28498,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28579,7 +28535,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/butte_recapture_metadata.xlsx
+++ b/data-raw/metadata/butte_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACFBC7B-2212-B841-9F8D-B5EB35E8EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556FA4A-4B73-8741-8A35-AB78FEC876D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="17280" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>commonName</t>
   </si>
   <si>
-    <t>Common name of species</t>
-  </si>
-  <si>
     <t>releaseID</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>lifeStage</t>
-  </si>
-  <si>
-    <t>Life stage of the fish. Levels = c("Not recorded", "Smolt", "Parr", "Fry", "Button-up fry", "Silvery parr", "Adult", "Juvenile", "Ammocoete", "Yearling", "Yolk sac fry (alevin)")</t>
   </si>
   <si>
     <t>forkLength</t>
@@ -172,13 +166,7 @@
     <t>siteName</t>
   </si>
   <si>
-    <t>Name of the sampling site. Levels = c("Parrott-Phelan canal trap box", "Okie RST", "Parrott-Phelan RST")</t>
-  </si>
-  <si>
     <t>subSiteName</t>
-  </si>
-  <si>
-    <t>Name of the trap or trap location. Levels = c("canal trap box", "Okie RST", "PP RST")</t>
   </si>
   <si>
     <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 11</t>
@@ -194,18 +182,6 @@
   </si>
   <si>
     <t>markCode</t>
-  </si>
-  <si>
-    <t>type of mark on fish</t>
-  </si>
-  <si>
-    <t>color of mark on fish</t>
-  </si>
-  <si>
-    <t>position of mark on body of fish</t>
-  </si>
-  <si>
-    <t>code identifying the type of mark</t>
   </si>
   <si>
     <t>code</t>
@@ -235,13 +211,37 @@
     <t>Run as assigned at the time of the capture. Levels = c("Spring", "Not recorded", "Winter", "Late fall", "Fall")</t>
   </si>
   <si>
-    <t>Run revised after field visit. Levels = c("Spring", "Not recorded", "Winter", "Late fall", "Fall")</t>
-  </si>
-  <si>
     <t>recapture</t>
   </si>
   <si>
     <t>Butte Creek RST program</t>
+  </si>
+  <si>
+    <t>Common name of species. Levels = c("Chinook salmon")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run revised after field visit. </t>
+  </si>
+  <si>
+    <t>Life stage of the fish. Levels = c("Not recorded", "Juvenile", "Fry")</t>
+  </si>
+  <si>
+    <t>Name of the sampling site. Levels = c("Parrot-Phelan RST")</t>
+  </si>
+  <si>
+    <t>Name of the trap or trap location. Levels = c("PP RST")</t>
+  </si>
+  <si>
+    <t>Type of mark on fish. Levels = c("Pigment / dye")</t>
+  </si>
+  <si>
+    <t>Color of mark on fish. Levels = c("Brown")</t>
+  </si>
+  <si>
+    <t>Position of mark on body of fish. Levels = c("Brown")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code identifying the type of mark on fish. </t>
   </si>
 </sst>
 </file>
@@ -554,9 +554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -679,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -749,13 +749,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -860,16 +860,16 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -898,16 +898,16 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -936,16 +936,16 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -974,16 +974,16 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -1012,28 +1012,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1060,28 +1060,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1108,28 +1108,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1156,26 +1156,26 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="11">
@@ -1200,16 +1200,16 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1238,16 +1238,16 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -1276,16 +1276,16 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -28498,13 +28498,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28535,7 +28535,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
